--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
-    <sheet name="Matching Times" sheetId="2" r:id="rId2"/>
-    <sheet name="Queries" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
   <si>
     <t>load graph</t>
   </si>
@@ -33,24 +32,12 @@
     <t>PageRank</t>
   </si>
   <si>
-    <t>PageRank parallel</t>
-  </si>
-  <si>
-    <t>HITS parallel</t>
-  </si>
-  <si>
     <t>VALORI IN MEDIA SU 10 Run</t>
   </si>
   <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Best Match</t>
-  </si>
-  <si>
-    <t>Improved best match</t>
-  </si>
-  <si>
     <t>Query 1</t>
   </si>
   <si>
@@ -81,9 +68,6 @@
     <t>Query 10</t>
   </si>
   <si>
-    <t>Query</t>
-  </si>
-  <si>
     <t>Lunghezza</t>
   </si>
   <si>
@@ -316,6 +300,15 @@
   </si>
   <si>
     <t>30000 (full)</t>
+  </si>
+  <si>
+    <t>HITS parallel 4 jobs</t>
+  </si>
+  <si>
+    <t>full , 10 iterations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HITS </t>
   </si>
 </sst>
 </file>
@@ -570,11 +563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="418500744"/>
-        <c:axId val="418503488"/>
+        <c:axId val="271060520"/>
+        <c:axId val="270204544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="418500744"/>
+        <c:axId val="271060520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,7 +609,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418503488"/>
+        <c:crossAx val="270204544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -624,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418503488"/>
+        <c:axId val="270204544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +667,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418500744"/>
+        <c:crossAx val="271060520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -817,7 +810,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Ranking!$B$2,Ranking!$B$4,Ranking!$B$6,Ranking!$B$8,Ranking!$B$10,Ranking!$B$12)</c:f>
+              <c:f>(Ranking!$B$3,Ranking!$B$5,Ranking!$B$7,Ranking!$B$9,Ranking!$B$11,Ranking!$B$13)</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -848,22 +841,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.156</c:v>
+                  <c:v>3.157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.06</c:v>
+                  <c:v>8.6340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95</c:v>
+                  <c:v>29.806000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.326000000000001</c:v>
+                  <c:v>77.531999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.635999999999999</c:v>
+                  <c:v>213.72499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85.07</c:v>
+                  <c:v>427.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,11 +872,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="418497608"/>
-        <c:axId val="418498392"/>
+        <c:axId val="270473832"/>
+        <c:axId val="270474216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="418497608"/>
+        <c:axId val="270473832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +918,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418498392"/>
+        <c:crossAx val="270474216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -933,7 +926,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418498392"/>
+        <c:axId val="270474216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +976,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418497608"/>
+        <c:crossAx val="270473832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1269,11 +1262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="361510400"/>
-        <c:axId val="361511576"/>
+        <c:axId val="133916480"/>
+        <c:axId val="133916088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361510400"/>
+        <c:axId val="133916480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1308,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361511576"/>
+        <c:crossAx val="133916088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1323,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361511576"/>
+        <c:axId val="133916088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1366,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361510400"/>
+        <c:crossAx val="133916480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1707,11 +1700,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="361505696"/>
-        <c:axId val="361508048"/>
+        <c:axId val="270653968"/>
+        <c:axId val="270651616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361505696"/>
+        <c:axId val="270653968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1746,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361508048"/>
+        <c:crossAx val="270651616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +1754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361508048"/>
+        <c:axId val="270651616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1811,7 +1804,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361505696"/>
+        <c:crossAx val="270653968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4439,10 +4432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4464,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,7 +4477,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F11" si="0">SUM(C2:E2)</f>
+        <f t="shared" ref="F2:F13" si="0">SUM(C2:E2)</f>
         <v>16.150000000000002</v>
       </c>
     </row>
@@ -4496,17 +4489,17 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D3">
-        <v>0.156</v>
+        <v>3.157</v>
       </c>
       <c r="E3">
-        <v>3.2000000000000001E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>0.20100000000000001</v>
+        <v>3.1999999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4538,17 +4531,17 @@
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>2.8000000000000001E-2</v>
+        <v>0.03</v>
       </c>
       <c r="D5">
-        <v>2.06</v>
+        <v>8.6340000000000003</v>
       </c>
       <c r="E5">
-        <v>0.06</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>2.1480000000000001</v>
+        <v>8.7219999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4580,17 +4573,17 @@
         <v>5000</v>
       </c>
       <c r="C7">
-        <v>8.2000000000000003E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="D7">
-        <v>0.95</v>
+        <v>29.806000000000001</v>
       </c>
       <c r="E7">
-        <v>0.16200000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1.194</v>
+        <v>30.024000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4622,17 +4615,17 @@
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>0.17699999999999999</v>
+        <v>0.183</v>
       </c>
       <c r="D9">
-        <v>10.326000000000001</v>
+        <v>77.531999999999996</v>
       </c>
       <c r="E9">
-        <v>0.308</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>10.811</v>
+        <v>78.007000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4664,17 +4657,17 @@
         <v>20000</v>
       </c>
       <c r="C11">
-        <v>0.46700000000000003</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="D11">
-        <v>24.635999999999999</v>
+        <v>213.72499999999999</v>
       </c>
       <c r="E11">
-        <v>0.628</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>25.730999999999998</v>
+        <v>214.75199999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4682,7 +4675,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>4.9000000000000004</v>
@@ -4694,7 +4687,7 @@
         <v>0.33</v>
       </c>
       <c r="F12">
-        <f>SUM(C12:E12)</f>
+        <f t="shared" si="0"/>
         <v>5.33</v>
       </c>
     </row>
@@ -4703,35 +4696,46 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C13">
-        <v>0.79</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="D13">
-        <v>85.07</v>
+        <v>427.68</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="F13">
-        <f>SUM(C13:E13)</f>
-        <v>86.76</v>
+        <f t="shared" si="0"/>
+        <v>429.56900000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27">
+        <v>53.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28">
+        <v>4.1500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4743,169 +4747,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-      <c r="Q1">
-        <v>16</v>
-      </c>
-      <c r="R1">
-        <v>17</v>
-      </c>
-      <c r="S1">
-        <v>18</v>
-      </c>
-      <c r="T1">
-        <v>19</v>
-      </c>
-      <c r="U1">
-        <v>20</v>
-      </c>
-      <c r="V1">
-        <v>21</v>
-      </c>
-      <c r="W1">
-        <v>22</v>
-      </c>
-      <c r="X1">
-        <v>23</v>
-      </c>
-      <c r="Y1">
-        <v>24</v>
-      </c>
-      <c r="Z1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="Z4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>
@@ -4922,39 +4766,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>1.6000000000000001E-3</v>
@@ -4967,24 +4811,24 @@
         <v>1.0000000000000005E-4</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>2.0000000000000001E-4</v>
@@ -4997,24 +4841,24 @@
         <v>1E-4</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>1.1000000000000001E-3</v>
@@ -5027,24 +4871,24 @@
         <v>-8.9999999999999998E-4</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>3.0000000000000001E-3</v>
@@ -5057,27 +4901,27 @@
         <v>2E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6">
         <v>4.0000000000000002E-4</v>
@@ -5090,19 +4934,19 @@
         <v>3.0000000000000003E-4</v>
       </c>
       <c r="G6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D7" s="6">
         <f>AVERAGE(D2:D6)</f>
@@ -5119,13 +4963,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>8.9999999999999993E-3</v>
@@ -5138,24 +4982,24 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>2E-3</v>
@@ -5168,24 +5012,24 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D10">
         <v>4.0000000000000001E-3</v>
@@ -5198,24 +5042,24 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D11">
         <v>2E-3</v>
@@ -5228,24 +5072,24 @@
         <v>1.7000000000000001E-3</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D12">
         <v>4.0000000000000001E-3</v>
@@ -5258,19 +5102,19 @@
         <v>1E-3</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D13" s="6">
         <f>AVERAGE(D8:D12)</f>
@@ -5287,13 +5131,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>0.01</v>
@@ -5306,24 +5150,24 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>1E-4</v>
@@ -5336,24 +5180,24 @@
         <v>-3.0000000000000003E-4</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>2E-3</v>
@@ -5366,24 +5210,24 @@
         <v>1.4000000000000002E-3</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>6.9999999999999999E-4</v>
@@ -5396,24 +5240,24 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D18">
         <v>2E-3</v>
@@ -5426,19 +5270,19 @@
         <v>1E-3</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D19" s="6">
         <f>AVERAGE(D14:D18)</f>
@@ -5455,13 +5299,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>2.5999999999999999E-3</v>
@@ -5474,24 +5318,24 @@
         <v>2.0000000000000009E-4</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>2E-3</v>
@@ -5504,24 +5348,24 @@
         <v>-1E-3</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>1.2999999999999999E-2</v>
@@ -5534,24 +5378,24 @@
         <v>-2.2000000000000006E-2</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D23">
         <v>1.1999999999999999E-3</v>
@@ -5564,24 +5408,24 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D24">
         <v>3.5000000000000001E-3</v>
@@ -5594,19 +5438,19 @@
         <v>-2.9999999999999992E-4</v>
       </c>
       <c r="G24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D25" s="6">
         <f>AVERAGE(D20:D24)</f>
@@ -5623,13 +5467,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <v>1.2E-2</v>
@@ -5642,24 +5486,24 @@
         <v>-1.7999999999999999E-2</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>0.01</v>
@@ -5672,24 +5516,24 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>6.0000000000000001E-3</v>
@@ -5702,24 +5546,24 @@
         <v>-4.0000000000000001E-3</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D29">
         <v>1.2999999999999999E-3</v>
@@ -5732,24 +5576,24 @@
         <v>1.0000000000000005E-4</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>0.01</v>
@@ -5762,19 +5606,19 @@
         <v>-2E-3</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D31" s="6">
         <f>AVERAGE(D26:D30)</f>

--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -433,6 +433,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> esecuzione </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pagerank</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -563,11 +602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="271060520"/>
-        <c:axId val="270204544"/>
+        <c:axId val="302785600"/>
+        <c:axId val="302785984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="271060520"/>
+        <c:axId val="302785600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +648,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270204544"/>
+        <c:crossAx val="302785984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,7 +656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270204544"/>
+        <c:axId val="302785984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -667,7 +706,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271060520"/>
+        <c:crossAx val="302785600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -742,6 +781,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tempi esecuzione HITS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -872,11 +942,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270473832"/>
-        <c:axId val="270474216"/>
+        <c:axId val="302042048"/>
+        <c:axId val="302041656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270473832"/>
+        <c:axId val="302042048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -918,7 +988,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270474216"/>
+        <c:crossAx val="302041656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -926,7 +996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270474216"/>
+        <c:axId val="302041656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +1046,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270473832"/>
+        <c:crossAx val="302042048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,11 +1332,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="133916480"/>
-        <c:axId val="133916088"/>
+        <c:axId val="302043224"/>
+        <c:axId val="302043616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133916480"/>
+        <c:axId val="302043224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1378,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133916088"/>
+        <c:crossAx val="302043616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1386,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133916088"/>
+        <c:axId val="302043616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,7 +1436,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133916480"/>
+        <c:crossAx val="302043224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,11 +1770,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270653968"/>
-        <c:axId val="270651616"/>
+        <c:axId val="303579584"/>
+        <c:axId val="303574880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270653968"/>
+        <c:axId val="303579584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1746,7 +1816,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270651616"/>
+        <c:crossAx val="303574880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1754,7 +1824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270651616"/>
+        <c:axId val="303574880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1874,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270653968"/>
+        <c:crossAx val="303579584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4434,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="N2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4749,7 +4819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AQ16" sqref="AQ16"/>
     </sheetView>
   </sheetViews>

--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -4,18 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
     <sheet name="Queries" sheetId="3" r:id="rId2"/>
+    <sheet name="Query " sheetId="4" r:id="rId3"/>
+    <sheet name="Query  " sheetId="6" r:id="rId4"/>
+    <sheet name="Query  11" sheetId="7" r:id="rId5"/>
+    <sheet name="Query  (4)" sheetId="8" r:id="rId6"/>
+    <sheet name="Query  21" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
   <si>
     <t>load graph</t>
   </si>
@@ -134,168 +139,12 @@
     <t>Trovato in IMP BS?</t>
   </si>
   <si>
-    <t>islands republic saint united south new island</t>
-  </si>
-  <si>
-    <t>http://www.lonelyplanet.com/blog/2014/05/01/meet-a-traveller-bruce-poon-tip-founder-of-g-adventures/</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>enterprise university building 906-487-4318 722 room</t>
-  </si>
-  <si>
-    <t>http://www.mtu.edu/enterprise/</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>nasa research 101</t>
-  </si>
-  <si>
-    <t>http://www.nasa.gov/centers/ames/home/directions.html</t>
-  </si>
-  <si>
-    <t>rights lucasfilm 2011 part tm</t>
-  </si>
-  <si>
-    <t>http://www.cartoonnetwork.com/tv_shows/adventuretime/characters/fionna/index.html</t>
-  </si>
-  <si>
-    <t>astro camp stennis space activities education</t>
-  </si>
-  <si>
-    <t>http://www.nasa.gov/offices/education/programs/descriptions/Astro_Camp.html</t>
-  </si>
-  <si>
-    <t>firstmerit bank 7th</t>
-  </si>
-  <si>
-    <t>http://www.mtu.edu/giving/ways-to-give/annual-gift/</t>
-  </si>
-  <si>
-    <t>actor towboy midnight factotum matt</t>
-  </si>
-  <si>
-    <t>http://www.ign.com/stars/matt-dillon</t>
-  </si>
-  <si>
-    <t>politics defense home senate</t>
-  </si>
-  <si>
     <t>BS-IMP</t>
   </si>
   <si>
-    <t>http://www.foxnews.com/politics/2014/06/02/three-cops-in-new-mexicos-infamous-anal-cavity-search-case-still-on-job/?intcmp=latestnews</t>
-  </si>
-  <si>
-    <t>may pdt 2014 30 ago hours</t>
-  </si>
-  <si>
-    <t>http://www.imdb.com/news/ns0000344/?ref_=hm_nw_tv_t4</t>
-  </si>
-  <si>
-    <t>rated rate stars</t>
-  </si>
-  <si>
-    <t>http://www.imdb.com/title/tt2364975/?ref_=inth_ov_tt</t>
-  </si>
-  <si>
-    <t>national park islands republic saint collection now</t>
-  </si>
-  <si>
-    <t>http://www.lonelyplanet.com/usa/yosemite-national-park</t>
-  </si>
-  <si>
-    <t>movies mini wars star movie filter-movies episode</t>
-  </si>
-  <si>
-    <t>http://www.lego.com/en-us/starwars/movies/movies/s4c5-bad</t>
-  </si>
-  <si>
-    <t>leadspace styles call 1-866-426-4252 us</t>
-  </si>
-  <si>
-    <t>http://www.ibm.com/smarterplanet/us/en/business_resilience_management/nextsteps/</t>
-  </si>
-  <si>
-    <t>islands republic seville</t>
-  </si>
-  <si>
-    <t>http://www.lonelyplanet.com/spain/seville/things-to-do/best-places-to-eat-in-seville</t>
-  </si>
-  <si>
-    <t>probabilmente island ha alto impatto</t>
-  </si>
-  <si>
-    <t>styles leadspace neck solutions specialized</t>
-  </si>
-  <si>
-    <t>http://www.ibm.com/smarterplanet/us/en/retail_analytics/examples/</t>
-  </si>
-  <si>
-    <t>movies mini wars star</t>
-  </si>
-  <si>
-    <t>http://www.lego.com/en-us/starwars/movies/commercials</t>
-  </si>
-  <si>
-    <t>arts performing visual keweenaw orchestra oct 730</t>
-  </si>
-  <si>
-    <t>http://www.mtu.edu/vpa/events/13-14/kso-color/</t>
-  </si>
-  <si>
-    <t>soccer cartoon rights superstar turner 2011 choose</t>
-  </si>
-  <si>
-    <t>http://www.cartoonnetwork.com/games/cc/superstar-soccer/index.html?atclk_hp=hpg_Games_Cartoon-Network_Superstar-Soccer</t>
-  </si>
-  <si>
-    <t>aqua mission page data</t>
-  </si>
-  <si>
-    <t>http://www.nasa.gov/mission_pages/aqua/</t>
-  </si>
-  <si>
-    <t>screen favorite cartoon network</t>
-  </si>
-  <si>
-    <t>http://www.cartoonnetwork.com/tv_shows/redakai/video/index.html</t>
-  </si>
-  <si>
-    <t>alumni tech michigan donald</t>
-  </si>
-  <si>
-    <t>http://www.mtu.edu/alumni/notables/profiles/Donald-Daavettila.html</t>
-  </si>
-  <si>
-    <t>sciences rich keweenaw</t>
-  </si>
-  <si>
-    <t>http://www.mtu.edu/social-sciences/undergraduate/history/</t>
-  </si>
-  <si>
-    <t>faculty student teams research will</t>
-  </si>
-  <si>
-    <t>http://www.nasa.gov/offices/education/programs/descriptions/Faculty_Student_Teams_Project.html</t>
-  </si>
-  <si>
-    <t>asking millennials hitman turns president takes</t>
-  </si>
-  <si>
-    <t>http://www.foxnews.com/on-air/happening-now/blog/2013/07/19/friday-july-19-2013-happening-now-detroit-bankrupt-us-baking</t>
-  </si>
-  <si>
-    <t>race vehicles great car take twistiest</t>
-  </si>
-  <si>
-    <t>http://www.lego.com/en-us/city/products/great-vehicles/60053-race-car</t>
-  </si>
-  <si>
     <t>MEDIA</t>
   </si>
   <si>
@@ -309,6 +158,126 @@
   </si>
   <si>
     <t xml:space="preserve">HITS </t>
+  </si>
+  <si>
+    <t>QUERY</t>
+  </si>
+  <si>
+    <t>BEST MATCH</t>
+  </si>
+  <si>
+    <t>PAGERANK</t>
+  </si>
+  <si>
+    <t>HITS authority</t>
+  </si>
+  <si>
+    <t>IMPROVED BEST MATCH</t>
+  </si>
+  <si>
+    <t>LENGTH</t>
+  </si>
+  <si>
+    <t>EXPECTED LINK</t>
+  </si>
+  <si>
+    <t>FOUND IN BS?</t>
+  </si>
+  <si>
+    <t>FOUND IN IBS?</t>
+  </si>
+  <si>
+    <t>The Duty Call Advanced Warfare</t>
+  </si>
+  <si>
+    <t>TEMPO BS</t>
+  </si>
+  <si>
+    <t>TEMPO IBS</t>
+  </si>
+  <si>
+    <t>http://www.ign.com/wikis/call-of-duty-advanced-warfare?objectid=20017429</t>
+  </si>
+  <si>
+    <t>http://www.ibm.com/connect/ibm/us/en/index.html</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>mortal combat wiki</t>
+  </si>
+  <si>
+    <t>UN resolution climate change</t>
+  </si>
+  <si>
+    <t>michael jordan nba basket matches</t>
+  </si>
+  <si>
+    <t>lego star wars clone republica cannon</t>
+  </si>
+  <si>
+    <t>space station The will It This first</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/forkids/kidsclub/text/Phase_6_Putting_It_All_Together.html</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/forstudents/k-4/stories/what-is-the-iss-k4.html</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/forstudents/5-8/features/what-is-the-iss-58.html</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/foreducators/expeditions/stem/stem-math-index.html</t>
+  </si>
+  <si>
+    <t>http://www.lego.com/en-us/juniors/games/firetruck</t>
+  </si>
+  <si>
+    <t>http://www.un.org/en/documents/contact.asp</t>
+  </si>
+  <si>
+    <t>http://www.lego.com/en-us/juniors/games/gas-station</t>
+  </si>
+  <si>
+    <t>http://www.lego.com/en-us/juniors/games/gas-station?icmp=COUSGamesGLJuniorsGasStation</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/forstudents/k-4/stories/what-is-orion-k4.html</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/forstudents/k-4/stories/what-is-juno-k4.html</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/foreducators/teachingfromspace/dayinthelife/index.html</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/foreducators/expeditions/stem/stem-tech-index.html</t>
+  </si>
+  <si>
+    <t>http://www.lego.com/en-us/juniors/games/pony?icmp=COUSGamesGLJuniorsPony</t>
+  </si>
+  <si>
+    <t>http://www.lego.com/en-us/juniors/games/pony</t>
+  </si>
+  <si>
+    <t>http://www.lego.com/en-us/city/codepage</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/mission_pages/station/research/index.html</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/about/highlights/AN_Structure_OtherAgencies.html</t>
+  </si>
+  <si>
+    <t>http://www.ign.com/wikis/halo-master-chief-collection</t>
+  </si>
+  <si>
+    <t>http://www.ign.com/wikis/halo-master-chief-collection?save=successful</t>
+  </si>
+  <si>
+    <t>http://www.ign.com/articles/2014/06/05/earthnight-coming-to-ps4-ps-vita</t>
   </si>
 </sst>
 </file>
@@ -376,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -384,12 +353,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -400,6 +384,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -602,11 +589,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="302785600"/>
-        <c:axId val="302785984"/>
+        <c:axId val="107046616"/>
+        <c:axId val="107047008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302785600"/>
+        <c:axId val="107046616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +635,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302785984"/>
+        <c:crossAx val="107047008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -656,7 +643,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302785984"/>
+        <c:axId val="107047008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +693,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302785600"/>
+        <c:crossAx val="107046616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -942,11 +929,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="302042048"/>
-        <c:axId val="302041656"/>
+        <c:axId val="108494224"/>
+        <c:axId val="108496184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302042048"/>
+        <c:axId val="108494224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +975,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302041656"/>
+        <c:crossAx val="108496184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -996,7 +983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302041656"/>
+        <c:axId val="108496184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1033,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302042048"/>
+        <c:crossAx val="108494224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1254,19 +1241,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2600000000000003E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2000000000000006E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.96E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4599999999999996E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8599999999999989E-3</c:v>
+                  <c:v>0.47318601608299998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,19 +1291,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.4000000000000008E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.14E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4000000000000014E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9600000000000009E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3439999999999999E-2</c:v>
+                  <c:v>1.6916990280199998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,11 +1319,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="302043224"/>
-        <c:axId val="302043616"/>
+        <c:axId val="108494616"/>
+        <c:axId val="108496968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302043224"/>
+        <c:axId val="108494616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1365,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302043616"/>
+        <c:crossAx val="108496968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1386,7 +1373,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="302043616"/>
+        <c:axId val="108496968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1423,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="302043224"/>
+        <c:crossAx val="108494616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1681,19 +1668,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.2600000000000003E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2000000000000006E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.96E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4599999999999996E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8599999999999989E-3</c:v>
+                  <c:v>0.47318601608299998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,19 +1729,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>9.4000000000000008E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.14E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4000000000000014E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9600000000000009E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3439999999999999E-2</c:v>
+                  <c:v>1.6916990280199998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1770,11 +1757,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="303579584"/>
-        <c:axId val="303574880"/>
+        <c:axId val="108495400"/>
+        <c:axId val="108498928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="303579584"/>
+        <c:axId val="108495400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +1803,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303574880"/>
+        <c:crossAx val="108498928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1824,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303574880"/>
+        <c:axId val="108498928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1861,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303579584"/>
+        <c:crossAx val="108495400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4504,7 +4491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="N2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -4745,7 +4732,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>4.9000000000000004</v>
@@ -4766,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>0.98099999999999998</v>
@@ -4789,12 +4776,12 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="B27">
         <v>53.41</v>
@@ -4802,7 +4789,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>4.1500000000000004</v>
@@ -4819,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AQ16" sqref="AQ16"/>
+    <sheetView topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4832,6 +4819,7 @@
     <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4848,7 +4836,7 @@
         <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
@@ -4858,6 +4846,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4868,26 +4859,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="E2">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F2">
-        <f>D2-E2</f>
-        <v>1.0000000000000005E-4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4897,28 +4869,6 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E3">
-        <v>1E-4</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F30" si="0">D3-E3</f>
-        <v>1E-4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -4927,28 +4877,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="E4">
-        <v>2E-3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-8.9999999999999998E-4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -4957,31 +4886,6 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E5">
-        <v>1E-3</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4990,45 +4894,23 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="E6">
-        <v>1E-4</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="1:10" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="6">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="e">
         <f>AVERAGE(D2:D6)</f>
-        <v>1.2600000000000003E-3</v>
-      </c>
-      <c r="E7" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="6" t="e">
         <f>AVERAGE(E2:E6)</f>
-        <v>9.4000000000000008E-4</v>
-      </c>
-      <c r="F7" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="6" t="e">
         <f>AVERAGE(F2:F6)</f>
-        <v>3.2000000000000008E-4</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5039,26 +4921,11 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="E8">
-        <v>1E-3</v>
+        <v>62</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
+        <f>D8-E8</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -5068,27 +4935,9 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9">
-        <v>2E-3</v>
-      </c>
-      <c r="E9">
-        <v>4.0000000000000002E-4</v>
-      </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
+        <f t="shared" ref="F3:F30" si="0">D9-E9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5098,27 +4947,9 @@
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E10">
-        <v>1E-3</v>
-      </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -5128,27 +4959,9 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11">
-        <v>2E-3</v>
-      </c>
-      <c r="E11">
-        <v>2.9999999999999997E-4</v>
-      </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.7000000000000001E-3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5158,45 +4971,27 @@
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E12">
-        <v>3.0000000000000001E-3</v>
-      </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="C13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="6">
+        <v>41</v>
+      </c>
+      <c r="D13" s="6" t="e">
         <f>AVERAGE(D8:D12)</f>
-        <v>4.2000000000000006E-3</v>
-      </c>
-      <c r="E13" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="6" t="e">
         <f>AVERAGE(E8:E12)</f>
-        <v>1.14E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F13" s="6">
         <f>AVERAGE(F8:F12)</f>
-        <v>3.0600000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5207,27 +5002,9 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
-        <v>2E-3</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" t="s">
-        <v>41</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -5236,28 +5013,6 @@
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>1E-4</v>
-      </c>
-      <c r="E15">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-3.0000000000000003E-4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -5266,28 +5021,6 @@
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16">
-        <v>2E-3</v>
-      </c>
-      <c r="E16">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -5296,28 +5029,6 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="E17">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -5326,45 +5037,23 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18">
-        <v>2E-3</v>
-      </c>
-      <c r="E18">
-        <v>1E-3</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="19" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
       <c r="C19" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="6">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6" t="e">
         <f>AVERAGE(D14:D18)</f>
-        <v>2.96E-3</v>
-      </c>
-      <c r="E19" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="6" t="e">
         <f>AVERAGE(E14:E18)</f>
-        <v>8.4000000000000014E-4</v>
-      </c>
-      <c r="F19" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="6" t="e">
         <f>AVERAGE(F14:F18)</f>
-        <v>2.1200000000000004E-3</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5375,26 +5064,11 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="E20">
-        <v>2.3999999999999998E-3</v>
+        <v>64</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>2.0000000000000009E-4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -5404,27 +5078,9 @@
       <c r="B21">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21">
-        <v>2E-3</v>
-      </c>
-      <c r="E21">
-        <v>3.0000000000000001E-3</v>
-      </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>-1E-3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -5434,27 +5090,9 @@
       <c r="B22">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E22">
-        <v>3.5000000000000003E-2</v>
-      </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>-2.2000000000000006E-2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5464,27 +5102,10 @@
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="E23">
-        <v>5.9999999999999995E-4</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5494,45 +5115,27 @@
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="E24">
-        <v>3.8E-3</v>
-      </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>-2.9999999999999992E-4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="C25" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="6">
+        <v>41</v>
+      </c>
+      <c r="D25" s="6" t="e">
         <f>AVERAGE(D20:D24)</f>
-        <v>4.4599999999999996E-3</v>
-      </c>
-      <c r="E25" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="6" t="e">
         <f>AVERAGE(E20:E24)</f>
-        <v>8.9600000000000009E-3</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F25" s="6">
         <f>AVERAGE(F20:F24)</f>
-        <v>-4.5000000000000014E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5543,26 +5146,26 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>1.2E-2</v>
+        <v>0.47318601608299998</v>
       </c>
       <c r="E26">
-        <v>0.03</v>
+        <v>1.6916990280199998E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>-1.7999999999999999E-2</v>
+        <v>0.45626902580279999</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5572,27 +5175,9 @@
       <c r="B27">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27">
-        <v>0.01</v>
-      </c>
-      <c r="E27">
-        <v>1.4E-2</v>
-      </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5602,27 +5187,10 @@
       <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E28">
-        <v>0.01</v>
-      </c>
+      <c r="C28" s="3"/>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>-4.0000000000000001E-3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5632,27 +5200,9 @@
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="E29">
-        <v>1.1999999999999999E-3</v>
-      </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>1.0000000000000005E-4</v>
-      </c>
-      <c r="G29" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -5662,59 +5212,1281 @@
       <c r="B30">
         <v>7</v>
       </c>
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30">
-        <v>0.01</v>
-      </c>
-      <c r="E30">
-        <v>1.2E-2</v>
-      </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>-2E-3</v>
-      </c>
-      <c r="G30" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="C31" s="6" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="D31" s="6">
         <f>AVERAGE(D26:D30)</f>
-        <v>7.8599999999999989E-3</v>
+        <v>0.47318601608299998</v>
       </c>
       <c r="E31" s="6">
         <f>AVERAGE(E26:E30)</f>
-        <v>1.3439999999999999E-2</v>
+        <v>1.6916990280199998E-2</v>
       </c>
       <c r="F31" s="6">
         <f>AVERAGE(F26:F30)</f>
-        <v>-5.5799999999999999E-3</v>
+        <v>9.1253805160560003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F32" s="6">
+      <c r="F32" s="6" t="e">
         <f>AVERAGE(F7,F13,F19,F25,F31)</f>
-        <v>-9.1600000000000015E-4</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2">
+        <v>0.22014403343200001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.22451903405899E-5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.30730858148743E-5</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5.1931818181818101E-6</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5.4721664168040596E-6</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="10">
+        <v>7.8582170342663692E-6</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1.20452448760635E-5</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7.8582170342663692E-6</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1.8452363336314102E-5</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1.7359516528926399E-5</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1.9402476155750199E-5</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2.54689697393084E-5</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1.2370595785032599E-8</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10">
+        <v>5.4721664168040596E-6</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="10">
+        <v>1.8452363336314102E-5</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="10">
+        <v>7.8582170342663692E-6</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5.1241264671323601E-5</v>
+      </c>
+      <c r="C21" s="10">
+        <v>5.5544105523551599E-7</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="10">
+        <v>5.43748836873962E-6</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="10">
+        <v>5.1469215394822304E-6</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="10">
+        <v>4.3494635989035301E-5</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1.20476216749328E-6</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="10">
+        <v>9.0625332665379805E-6</v>
+      </c>
+      <c r="C25" s="10">
+        <v>5.4873559636968102E-8</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="10">
+        <v>8.3622676310891896E-6</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1.04063454274664E-7</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G14" r:id="rId1"/>
+    <hyperlink ref="A25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="86">
-  <si>
-    <t>load graph</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
   <si>
     <t>HITS</t>
   </si>
   <si>
-    <t>dumping</t>
-  </si>
-  <si>
     <t>algorithm execution</t>
   </si>
   <si>
@@ -40,9 +34,6 @@
     <t>VALORI IN MEDIA SU 10 Run</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
     <t>Query 1</t>
   </si>
   <si>
@@ -76,12 +67,6 @@
     <t>Lunghezza</t>
   </si>
   <si>
-    <t>Testo</t>
-  </si>
-  <si>
-    <t>Documento atteso</t>
-  </si>
-  <si>
     <t>Query 11</t>
   </si>
   <si>
@@ -127,21 +112,12 @@
     <t>Query 25</t>
   </si>
   <si>
-    <t>Trovato in BS?</t>
-  </si>
-  <si>
     <t>Tempo BS</t>
   </si>
   <si>
     <t>Tempo IMP BS</t>
   </si>
   <si>
-    <t>Trovato in IMP BS?</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
     <t>BS-IMP</t>
   </si>
   <si>
@@ -200,21 +176,6 @@
   </si>
   <si>
     <t>http://www.ibm.com/connect/ibm/us/en/index.html</t>
-  </si>
-  <si>
-    <t>NOTE</t>
-  </si>
-  <si>
-    <t>mortal combat wiki</t>
-  </si>
-  <si>
-    <t>UN resolution climate change</t>
-  </si>
-  <si>
-    <t>michael jordan nba basket matches</t>
-  </si>
-  <si>
-    <t>lego star wars clone republica cannon</t>
   </si>
   <si>
     <t>space station The will It This first</t>
@@ -284,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,12 +272,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,13 +335,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -553,27 +508,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Ranking!$D$2,Ranking!$D$4,Ranking!$D$6,Ranking!$D$8,Ranking!$D$10,Ranking!$D$12)</c:f>
+              <c:f>(Ranking!$C$2,Ranking!$C$4,Ranking!$C$6,Ranking!$C$8,Ranking!$C$10,Ranking!$C$12)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.0000000000000001E-3</c:v>
+                  <c:v>1.2053113041320101E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>3.1270832565536401E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.14399963798861601</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0.55848499168913301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>3.0424219494592899</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>10.2829727759042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,11 +544,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="107046616"/>
-        <c:axId val="107047008"/>
+        <c:axId val="305274416"/>
+        <c:axId val="140539000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107046616"/>
+        <c:axId val="305274416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -635,7 +590,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107047008"/>
+        <c:crossAx val="140539000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -643,7 +598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107047008"/>
+        <c:axId val="140539000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +648,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107046616"/>
+        <c:crossAx val="305274416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -893,7 +848,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Ranking!$D$3,Ranking!$D$5,Ranking!$D$7,Ranking!$D$9,Ranking!$D$11,Ranking!$D$13)</c:f>
+              <c:f>(Ranking!$C$3,Ranking!$C$5,Ranking!$C$7,Ranking!$C$9,Ranking!$C$11,Ranking!$C$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -929,11 +884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108494224"/>
-        <c:axId val="108496184"/>
+        <c:axId val="140542136"/>
+        <c:axId val="140540176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108494224"/>
+        <c:axId val="140542136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,7 +930,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108496184"/>
+        <c:crossAx val="140540176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -983,7 +938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108496184"/>
+        <c:axId val="140540176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +988,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108494224"/>
+        <c:crossAx val="140542136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1134,13 +1089,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" sz="2400"/>
-              <a:t>Tempi</a:t>
+              <a:t>Execution Times</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" sz="2400" baseline="0"/>
-              <a:t> di esecuzione</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1236,24 +1186,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Queries!$D$7,Queries!$D$13,Queries!$D$19,Queries!$D$25,Queries!$D$31)</c:f>
+              <c:f>(Queries!$C$7,Queries!$C$13,Queries!$C$19,Queries!$C$25,Queries!$C$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.4906435012784998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.21140398979177402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.9908361435018E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.48650479316771006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47318601608299998</c:v>
+                  <c:v>0.74424324035627998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,24 +1236,24 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Queries!$E$7,Queries!$E$13,Queries!$E$19,Queries!$E$25,Queries!$E$31)</c:f>
+              <c:f>(Queries!$D$7,Queries!$D$13,Queries!$D$19,Queries!$D$25,Queries!$D$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9952774047856002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.1078319549594008E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.1033744812040002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.9214611053469996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6916990280199998E-2</c:v>
+                  <c:v>8.589172363273001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,11 +1269,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108494616"/>
-        <c:axId val="108496968"/>
+        <c:axId val="140543704"/>
+        <c:axId val="140541352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108494616"/>
+        <c:axId val="140543704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1315,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108496968"/>
+        <c:crossAx val="140541352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1373,7 +1323,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108496968"/>
+        <c:axId val="140541352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1373,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108494616"/>
+        <c:crossAx val="140543704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,8 +1505,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" sz="2400"/>
-              <a:t>Proiezione esponenziale dei tempi</a:t>
+              <a:t>Exp(Execution</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400" baseline="0"/>
+              <a:t> Times)</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="2400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1663,24 +1618,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Queries!$D$7,Queries!$D$13,Queries!$D$19,Queries!$D$25,Queries!$D$31)</c:f>
+              <c:f>(Queries!$C$7,Queries!$C$13,Queries!$C$19,Queries!$C$25,Queries!$C$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.4906435012784998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.21140398979177402</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.9908361435018E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.48650479316771006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47318601608299998</c:v>
+                  <c:v>0.74424324035627998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1724,24 +1679,24 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>(Queries!$E$7,Queries!$E$13,Queries!$E$19,Queries!$E$25,Queries!$E$31)</c:f>
+              <c:f>(Queries!$D$7,Queries!$D$13,Queries!$D$19,Queries!$D$25,Queries!$D$31)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9952774047856002E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.1078319549594008E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.1033744812040002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3.9214611053469996E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6916990280199998E-2</c:v>
+                  <c:v>8.589172363273001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1757,11 +1712,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="108495400"/>
-        <c:axId val="108498928"/>
+        <c:axId val="140537824"/>
+        <c:axId val="140540568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108495400"/>
+        <c:axId val="140537824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1758,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108498928"/>
+        <c:crossAx val="140540568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1766,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108498928"/>
+        <c:axId val="140540568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1816,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108495400"/>
+        <c:crossAx val="140537824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4074,13 +4029,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>600074</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -4104,13 +4059,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4139,13 +4094,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -4169,13 +4124,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4489,299 +4444,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>16.14</v>
-      </c>
-      <c r="D2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="E2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F13" si="0">SUM(C2:E2)</f>
-        <v>16.150000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.2053113041320101E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D3">
         <v>3.157</v>
       </c>
-      <c r="E3">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>3.1999999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2000</v>
       </c>
       <c r="C4">
-        <v>5.39</v>
-      </c>
-      <c r="D4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="E4">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>5.4239999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.1270832565536401E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>2000</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
-      </c>
-      <c r="D5">
         <v>8.6340000000000003</v>
       </c>
-      <c r="E5">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>8.7219999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>5000</v>
       </c>
       <c r="C6">
-        <v>5.19</v>
-      </c>
-      <c r="D6">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E6">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>5.2709999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.14399963798861601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>5000</v>
       </c>
       <c r="C7">
-        <v>7.8E-2</v>
-      </c>
-      <c r="D7">
         <v>29.806000000000001</v>
       </c>
-      <c r="E7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>30.024000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>10000</v>
       </c>
       <c r="C8">
-        <v>5.45</v>
-      </c>
-      <c r="D8">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>5.6180000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55848499168913301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>10000</v>
       </c>
       <c r="C9">
-        <v>0.183</v>
-      </c>
-      <c r="D9">
         <v>77.531999999999996</v>
       </c>
-      <c r="E9">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>78.007000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>20000</v>
       </c>
       <c r="C10">
-        <v>5.37</v>
-      </c>
-      <c r="D10">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>5.7060000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.0424219494592899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>20000</v>
       </c>
       <c r="C11">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="D11">
         <v>213.72499999999999</v>
       </c>
-      <c r="E11">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>214.75199999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D12">
-        <v>0.1</v>
-      </c>
-      <c r="E12">
-        <v>0.33</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>5.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10.2829727759042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="D13">
         <v>427.68</v>
-      </c>
-      <c r="E13">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>429.56900000000002</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>53.41</v>
@@ -4789,7 +4613,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>4.1500000000000004</v>
@@ -4804,441 +4628,587 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="47" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>9.9110603332499994E-4</v>
+      </c>
+      <c r="D2">
+        <v>8.4090232849099995E-4</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>1.5020370483399999E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0.22456908226</v>
+      </c>
+      <c r="D3">
+        <v>2.72607803345E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">C3-D3</f>
+        <v>0.22184300422654998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>6.9360017776499999E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.77106666565E-3</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>6.5588951110850002E-2</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>5.5372953414899999E-2</v>
+      </c>
+      <c r="D5">
+        <v>2.25019454956E-3</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.312275886534E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="C7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="6" t="e">
+      <c r="C6">
+        <v>7.4239015579199999E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.88145446777E-4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>7.3850870132423002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5">
+        <f>AVERAGE(C2:C6)</f>
+        <v>8.4906435012784998E-2</v>
+      </c>
+      <c r="D7" s="5">
         <f>AVERAGE(D2:D6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="6" t="e">
+        <v>1.9952774047856002E-3</v>
+      </c>
+      <c r="E7" s="5">
         <f>AVERAGE(E2:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="6" t="e">
-        <f>AVERAGE(F2:F6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>8.2911157607999414E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8">
-        <f>D8-E8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>4.0800571441700004E-3</v>
+      </c>
+      <c r="D8">
+        <v>7.0469379425000004E-3</v>
+      </c>
+      <c r="E8">
+        <f>C8-D8</f>
+        <v>-2.9668807983300001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F3:F30" si="0">D9-E9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="10">
+        <v>0.33794879913300002</v>
+      </c>
+      <c r="D9">
+        <v>4.80794906616E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E30" si="1">C9-D9</f>
+        <v>0.33314085006684002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>8.8738203048700004E-2</v>
+      </c>
+      <c r="D10">
+        <v>6.9618225097699998E-4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>8.8042020797722997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.43239092826800002</v>
+      </c>
+      <c r="D11">
+        <v>1.0440111160299999E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.42195081710769999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A13" s="5"/>
-      <c r="C13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="6" t="e">
+      <c r="C12">
+        <v>0.193861961365</v>
+      </c>
+      <c r="D12">
+        <v>2.54797935486E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0.19131398201013999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="5">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.21140398979177402</v>
+      </c>
+      <c r="D13" s="5">
         <f>AVERAGE(D8:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="6" t="e">
+        <v>5.1078319549594008E-3</v>
+      </c>
+      <c r="E13" s="5">
         <f>AVERAGE(E8:E12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="6">
-        <f>AVERAGE(F8:F12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.2062961578368146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>5.8948993682900004E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.7518997192399999E-3</v>
+      </c>
+      <c r="E14">
+        <f>C14-D14</f>
+        <v>4.1429996490500009E-3</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>0.27640199661300002</v>
+      </c>
+      <c r="D15">
+        <v>5.6059360504200004E-3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E18" si="2">C15-D15</f>
+        <v>0.27079606056258004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>3.78139019012E-2</v>
+      </c>
+      <c r="D16">
+        <v>1.54209136963E-3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>3.6271810531569998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>4.7414064407299998E-2</v>
+      </c>
+      <c r="D17">
+        <v>6.1869621276899999E-3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>4.1227102279609996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="C19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="6" t="e">
+      <c r="C18">
+        <v>8.2016944885299994E-2</v>
+      </c>
+      <c r="D18">
+        <v>5.4299831390400002E-3</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>7.6586961746259993E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5">
+        <f>AVERAGE(C14:C18)</f>
+        <v>8.9908361435018E-2</v>
+      </c>
+      <c r="D19" s="5">
         <f>AVERAGE(D14:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="6" t="e">
+        <v>4.1033744812040002E-3</v>
+      </c>
+      <c r="E19" s="5">
         <f>AVERAGE(E14:E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="6" t="e">
-        <f>AVERAGE(F14:F18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.5804986953814028E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2.0039081573500002E-3</v>
+      </c>
+      <c r="D20">
+        <v>5.3215026855499997E-4</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1.4717578887950002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="10">
+        <v>2.0617940425899999</v>
+      </c>
+      <c r="D21">
+        <v>4.0540695190399998E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>2.05773997307096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>0.140160083771</v>
+      </c>
+      <c r="D22">
+        <v>2.64000892639E-3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.13752007484461001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="10">
+        <v>0.169538974762</v>
+      </c>
+      <c r="D23">
+        <v>8.5110664367699998E-3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.16102790832523001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="5"/>
-      <c r="C25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="6" t="e">
+      <c r="C24">
+        <v>5.9026956558199999E-2</v>
+      </c>
+      <c r="D24">
+        <v>3.8700103759799999E-3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>5.5156946182220001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="5">
+        <f>AVERAGE(C20:C24)</f>
+        <v>0.48650479316771006</v>
+      </c>
+      <c r="D25" s="5">
         <f>AVERAGE(D20:D24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="6" t="e">
+        <v>3.9214611053469996E-3</v>
+      </c>
+      <c r="E25" s="5">
         <f>AVERAGE(E20:E24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="6">
-        <f>AVERAGE(F20:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.48258333206236292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
-        <v>65</v>
+      <c r="C26">
+        <v>0.14033198356599999</v>
       </c>
       <c r="D26">
-        <v>0.47318601608299998</v>
+        <v>6.1030387878399997E-3</v>
       </c>
       <c r="E26">
-        <v>1.6916990280199998E-2</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0.45626902580279999</v>
-      </c>
-      <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.13422894477816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0.139679193497</v>
+      </c>
+      <c r="D27">
+        <v>9.9158287048299997E-3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0.12976336479217002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="10">
+        <v>3.07358598709</v>
+      </c>
+      <c r="D28">
+        <v>9.1910362243699997E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>3.0643949508656299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>3.1640052795399998E-2</v>
+      </c>
+      <c r="D29">
+        <v>8.85009765625E-4</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>3.0755043029774998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>7</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A31" s="5"/>
-      <c r="C31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="6">
+      <c r="C30">
+        <v>0.33597898483299998</v>
+      </c>
+      <c r="D30">
+        <v>1.6850948333699999E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0.31912803649929999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="5" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.74424324035627998</v>
+      </c>
+      <c r="D31" s="5">
         <f>AVERAGE(D26:D30)</f>
-        <v>0.47318601608299998</v>
-      </c>
-      <c r="E31" s="6">
+        <v>8.589172363273001E-3</v>
+      </c>
+      <c r="E31" s="5">
         <f>AVERAGE(E26:E30)</f>
-        <v>1.6916990280199998E-2</v>
-      </c>
-      <c r="F31" s="6">
-        <f>AVERAGE(F26:F30)</f>
-        <v>9.1253805160560003E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F32" s="6" t="e">
-        <f>AVERAGE(F7,F13,F19,F25,F31)</f>
-        <v>#DIV/0!</v>
+        <v>0.73565406799300703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="E32" s="5">
+        <f>AVERAGE(E7,E13,E19,E25,E31)</f>
+        <v>0.31864994049079959</v>
       </c>
     </row>
   </sheetData>
@@ -5268,19 +5238,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5289,184 +5259,184 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5493,19 +5463,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5514,184 +5484,184 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5718,210 +5688,210 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5950,25 +5920,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
-      </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5976,191 +5946,191 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I2">
         <v>0.22014403343200001</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6171,8 +6141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6187,301 +6157,301 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.22451903405899E-5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1.30730858148743E-5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5.1931818181818101E-6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5.4721664168040596E-6</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7.8582170342663692E-6</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1.20452448760635E-5</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="9">
+        <v>7.8582170342663692E-6</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.8452363336314102E-5</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1.7359516528926399E-5</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.9402476155750199E-5</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2.54689697393084E-5</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.2370595785032599E-8</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="9">
+        <v>5.4721664168040596E-6</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1.8452363336314102E-5</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B20" s="9">
+        <v>7.8582170342663692E-6</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="10">
-        <v>1.22451903405899E-5</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B21" s="9">
+        <v>5.1241264671323601E-5</v>
+      </c>
+      <c r="C21" s="9">
+        <v>5.5544105523551599E-7</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="10">
-        <v>1.30730858148743E-5</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="10">
-        <v>5.1931818181818101E-6</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B22" s="9">
+        <v>5.43748836873962E-6</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="10">
-        <v>5.4721664168040596E-6</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B23" s="9">
+        <v>5.1469215394822304E-6</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="10">
-        <v>7.8582170342663692E-6</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B24" s="9">
+        <v>4.3494635989035301E-5</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1.20476216749328E-6</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="10">
-        <v>1.20452448760635E-5</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B25" s="9">
+        <v>9.0625332665379805E-6</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5.4873559636968102E-8</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="10">
-        <v>7.8582170342663692E-6</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1.8452363336314102E-5</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="10">
-        <v>1.7359516528926399E-5</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="10">
-        <v>1.9402476155750199E-5</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="10">
-        <v>2.54689697393084E-5</v>
-      </c>
-      <c r="C17" s="10">
-        <v>1.2370595785032599E-8</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="10">
-        <v>5.4721664168040596E-6</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="10">
-        <v>1.8452363336314102E-5</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="10">
-        <v>7.8582170342663692E-6</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="10">
-        <v>5.1241264671323601E-5</v>
-      </c>
-      <c r="C21" s="10">
-        <v>5.5544105523551599E-7</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="10">
-        <v>5.43748836873962E-6</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="10">
-        <v>5.1469215394822304E-6</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="10">
-        <v>4.3494635989035301E-5</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1.20476216749328E-6</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="10">
-        <v>9.0625332665379805E-6</v>
-      </c>
-      <c r="C25" s="10">
-        <v>5.4873559636968102E-8</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="10">
+      <c r="B26" s="9">
         <v>8.3622676310891896E-6</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>1.04063454274664E-7</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>HITS</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>http://www.ign.com/articles/2014/06/05/earthnight-coming-to-ps4-ps-vita</t>
+  </si>
+  <si>
+    <t>HITS improved</t>
   </si>
 </sst>
 </file>
@@ -401,15 +404,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tempi</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> esecuzione </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Pagerank</a:t>
+              <a:t>Pagerank Execution Times</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -544,11 +539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="305274416"/>
-        <c:axId val="140539000"/>
+        <c:axId val="312377032"/>
+        <c:axId val="312377416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="305274416"/>
+        <c:axId val="312377032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +585,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140539000"/>
+        <c:crossAx val="312377416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140539000"/>
+        <c:axId val="312377416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +643,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="305274416"/>
+        <c:crossAx val="312377032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -749,7 +744,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Tempi esecuzione HITS</a:t>
+              <a:t>HITS Execution Times</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -797,15 +792,72 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HITS Improved</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Ranking!$C$14,Ranking!$C$14,Ranking!$C$14,Ranking!$C$14,Ranking!$C$14,Ranking!$C$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>116.224257655071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>116.224257655071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.224257655071</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>116.224257655071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.224257655071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>116.224257655071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>HITS</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -884,11 +936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="140542136"/>
-        <c:axId val="140540176"/>
+        <c:axId val="311314688"/>
+        <c:axId val="311313512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140542136"/>
+        <c:axId val="311314688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +982,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140540176"/>
+        <c:crossAx val="311313512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -938,7 +990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140540176"/>
+        <c:axId val="311313512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +1040,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140542136"/>
+        <c:crossAx val="311314688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1000,6 +1052,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1094,7 +1177,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1269,11 +1351,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="140543704"/>
-        <c:axId val="140541352"/>
+        <c:axId val="312489352"/>
+        <c:axId val="312491312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140543704"/>
+        <c:axId val="312489352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1397,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140541352"/>
+        <c:crossAx val="312491312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1323,7 +1405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140541352"/>
+        <c:axId val="312491312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1455,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140543704"/>
+        <c:crossAx val="312489352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1387,7 +1469,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1515,7 +1596,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1712,11 +1792,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="140537824"/>
-        <c:axId val="140540568"/>
+        <c:axId val="312492488"/>
+        <c:axId val="312494056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140537824"/>
+        <c:axId val="312492488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,7 +1838,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140540568"/>
+        <c:crossAx val="312494056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1766,7 +1846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140540568"/>
+        <c:axId val="312494056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +1896,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="140537824"/>
+        <c:crossAx val="312492488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1838,7 +1918,6 @@
         <c:idx val="1"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4446,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4591,6 +4670,17 @@
       </c>
       <c r="C13">
         <v>427.68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>116.224257655071</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -539,11 +539,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312377032"/>
-        <c:axId val="312377416"/>
+        <c:axId val="175439024"/>
+        <c:axId val="175438240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312377032"/>
+        <c:axId val="175439024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,7 +585,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312377416"/>
+        <c:crossAx val="175438240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -593,7 +593,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312377416"/>
+        <c:axId val="175438240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +643,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312377032"/>
+        <c:crossAx val="175439024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,11 +936,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="311314688"/>
-        <c:axId val="311313512"/>
+        <c:axId val="175439416"/>
+        <c:axId val="175437848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="311314688"/>
+        <c:axId val="175439416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +982,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311313512"/>
+        <c:crossAx val="175437848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -990,7 +990,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311313512"/>
+        <c:axId val="175437848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1040,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311314688"/>
+        <c:crossAx val="175439416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1351,11 +1351,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312489352"/>
-        <c:axId val="312491312"/>
+        <c:axId val="192162872"/>
+        <c:axId val="192158952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312489352"/>
+        <c:axId val="192162872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1397,7 +1397,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312491312"/>
+        <c:crossAx val="192158952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1405,7 +1405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312491312"/>
+        <c:axId val="192158952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1455,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312489352"/>
+        <c:crossAx val="192162872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,11 +1792,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312492488"/>
-        <c:axId val="312494056"/>
+        <c:axId val="192164832"/>
+        <c:axId val="192165224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312492488"/>
+        <c:axId val="192164832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,7 +1838,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312494056"/>
+        <c:crossAx val="192165224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1846,7 +1846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312494056"/>
+        <c:axId val="192165224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +1896,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312492488"/>
+        <c:crossAx val="192164832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1932,6 +1932,499 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Execution Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time Best Match</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Queries!$C$7,Queries!$C$13,Queries!$C$19,Queries!$C$25,Queries!$C$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.4906435012784998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21140398979177402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9908361435018E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48650479316771006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74424324035627998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Time Improved Best Match</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Queries!$D$7,Queries!$D$13,Queries!$D$19,Queries!$D$25,Queries!$D$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9952774047856002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1078319549594008E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1033744812040002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9214611053469996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.589172363273001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="245505448"/>
+        <c:axId val="245498000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="245505448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Query</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245498000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="245498000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245505448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="85000"/>
@@ -2120,6 +2613,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3609,6 +4142,502 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4233,6 +5262,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4525,7 +5584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -4720,8 +5779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
   <si>
     <t>HITS</t>
   </si>
@@ -238,10 +238,34 @@
     <t>http://www.ign.com/wikis/halo-master-chief-collection?save=successful</t>
   </si>
   <si>
-    <t>http://www.ign.com/articles/2014/06/05/earthnight-coming-to-ps4-ps-vita</t>
-  </si>
-  <si>
     <t>HITS improved</t>
+  </si>
+  <si>
+    <t>HITS auth. Score</t>
+  </si>
+  <si>
+    <t>HITS Rank</t>
+  </si>
+  <si>
+    <t>BEST MATCH result</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>http://www.nasa.gov/audience/foreducators/spacelife/explorationdesign/overview/</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pagerank</t>
   </si>
 </sst>
 </file>
@@ -331,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -345,6 +369,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -539,11 +565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="175439024"/>
-        <c:axId val="175438240"/>
+        <c:axId val="194436104"/>
+        <c:axId val="194438456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175439024"/>
+        <c:axId val="194436104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,7 +611,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175438240"/>
+        <c:crossAx val="194438456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -593,7 +619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175438240"/>
+        <c:axId val="194438456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -643,7 +669,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175439024"/>
+        <c:crossAx val="194436104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -936,11 +962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="175439416"/>
-        <c:axId val="175437848"/>
+        <c:axId val="194437672"/>
+        <c:axId val="194436888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175439416"/>
+        <c:axId val="194437672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +1008,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175437848"/>
+        <c:crossAx val="194436888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -990,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175437848"/>
+        <c:axId val="194436888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,7 +1066,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175439416"/>
+        <c:crossAx val="194437672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1132,869 +1158,6 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="2400"/>
-              <a:t>Execution Times</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Best Match</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>(Queries!$B$6,Queries!$B$12,Queries!$B$18,Queries!$B$24,Queries!$B$30)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Queries!$C$7,Queries!$C$13,Queries!$C$19,Queries!$C$25,Queries!$C$31)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.4906435012784998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21140398979177402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.9908361435018E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48650479316771006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74424324035627998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Improved Best Match</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Queries!$D$7,Queries!$D$13,Queries!$D$19,Queries!$D$25,Queries!$D$31)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.9952774047856002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1078319549594008E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1033744812040002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9214611053469996E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.589172363273001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="192162872"/>
-        <c:axId val="192158952"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="192162872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="192158952"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="192158952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="192162872"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="2400"/>
-              <a:t>Exp(Execution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" sz="2400" baseline="0"/>
-              <a:t> Times)</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT" sz="2400"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Best Match</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>(Queries!$B$6,Queries!$B$12,Queries!$B$18,Queries!$B$24,Queries!$B$30)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Queries!$C$7,Queries!$C$13,Queries!$C$19,Queries!$C$25,Queries!$C$31)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.4906435012784998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21140398979177402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.9908361435018E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48650479316771006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74424324035627998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Improved Best Match</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="35000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:val>
-            <c:numRef>
-              <c:f>(Queries!$D$7,Queries!$D$13,Queries!$D$19,Queries!$D$25,Queries!$D$31)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.9952774047856002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.1078319549594008E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.1033744812040002E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9214611053469996E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.589172363273001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="192164832"/>
-        <c:axId val="192165224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="192164832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="192165224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="192165224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="192164832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2233,11 +1396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="245505448"/>
-        <c:axId val="245498000"/>
+        <c:axId val="195330240"/>
+        <c:axId val="195330632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="245505448"/>
+        <c:axId val="195330240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +1501,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245498000"/>
+        <c:crossAx val="195330632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2346,7 +1509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="245498000"/>
+        <c:axId val="195330632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,7 +1559,429 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245505448"/>
+        <c:crossAx val="195330240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Execution Times</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time Improved Best Match</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Queries!$D$7,Queries!$D$13,Queries!$D$19,Queries!$D$25,Queries!$D$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9952774047856002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1078319549594008E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1033744812040002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9214611053469996E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.589172363273001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="177624208"/>
+        <c:axId val="177621464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="177624208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Query</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Length</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177621464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177621464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177624208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2613,46 +2198,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -4142,502 +3687,6 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5202,68 +4251,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>17318</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -5286,7 +4273,39 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>33772</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5584,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="N7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5733,7 +4752,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>34</v>
@@ -5779,8 +4798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="B25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7288,323 +6307,515 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="79.140625" customWidth="1"/>
+    <col min="2" max="3" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2">
+      <c r="E2">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="9">
-        <v>1.22451903405899E-5</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="7">
+        <v>0.16239316239316201</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="12">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="9">
-        <v>1.30730858148743E-5</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="7">
+        <v>0.132013201320132</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="12">
+        <v>8</v>
+      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.13157894736842099</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="12">
+        <v>17</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="12">
+        <v>13</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="12">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="9">
-        <v>5.1931818181818101E-6</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="9">
-        <v>5.4721664168040596E-6</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="9">
-        <v>7.8582170342663692E-6</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1.20452448760635E-5</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="7">
+        <v>0.124645892351274</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="12">
+        <v>19</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="9">
-        <v>7.8582170342663692E-6</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="7">
+        <v>0.122448979591836</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="12">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12"/>
       <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="9">
-        <v>1.8452363336314102E-5</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="7">
+        <v>0.122448979591836</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="12">
+        <v>6</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="9">
-        <v>1.7359516528926399E-5</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="7">
+        <v>0.10919540229885</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="12">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12"/>
       <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="12">
+        <v>3</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="12">
+        <v>16</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="12">
+        <v>5</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="12">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="9">
-        <v>1.9402476155750199E-5</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="9">
-        <v>2.54689697393084E-5</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1.2370595785032599E-8</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="9">
-        <v>5.4721664168040596E-6</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="9">
-        <v>1.8452363336314102E-5</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="9">
-        <v>7.8582170342663692E-6</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="9">
-        <v>5.1241264671323601E-5</v>
-      </c>
-      <c r="C21" s="9">
-        <v>5.5544105523551599E-7</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>9.8765432098765399E-2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="12">
+        <v>4</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="9">
-        <v>5.43748836873962E-6</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="B22" s="7">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="12">
+        <v>18</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="9">
-        <v>5.1469215394822304E-6</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="7">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="12">
+        <v>20</v>
+      </c>
+      <c r="F23" s="12"/>
       <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="9">
-        <v>4.3494635989035301E-5</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1.20476216749328E-6</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>9.1922005571030599E-2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="12">
+        <v>2</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="9">
-        <v>9.0625332665379805E-6</v>
-      </c>
-      <c r="C25" s="9">
-        <v>5.4873559636968102E-8</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8">
+        <v>9.1922005571030599E-2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="12">
+        <v>11</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="9">
-        <v>8.3622676310891896E-6</v>
-      </c>
-      <c r="C26" s="9">
-        <v>1.04063454274664E-7</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="B26" s="7">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="12">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A25" r:id="rId1"/>
+    <hyperlink ref="A9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -4,23 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ranking" sheetId="1" r:id="rId1"/>
     <sheet name="Queries" sheetId="3" r:id="rId2"/>
-    <sheet name="Query " sheetId="4" r:id="rId3"/>
-    <sheet name="Query  " sheetId="6" r:id="rId4"/>
-    <sheet name="Query  11" sheetId="7" r:id="rId5"/>
-    <sheet name="Query  (4)" sheetId="8" r:id="rId6"/>
-    <sheet name="Query  21" sheetId="9" r:id="rId7"/>
+    <sheet name="Query  (dettagli)" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="77">
   <si>
     <t>HITS</t>
   </si>
@@ -139,18 +135,6 @@
     <t>QUERY</t>
   </si>
   <si>
-    <t>BEST MATCH</t>
-  </si>
-  <si>
-    <t>PAGERANK</t>
-  </si>
-  <si>
-    <t>HITS authority</t>
-  </si>
-  <si>
-    <t>IMPROVED BEST MATCH</t>
-  </si>
-  <si>
     <t>LENGTH</t>
   </si>
   <si>
@@ -161,21 +145,6 @@
   </si>
   <si>
     <t>FOUND IN IBS?</t>
-  </si>
-  <si>
-    <t>The Duty Call Advanced Warfare</t>
-  </si>
-  <si>
-    <t>TEMPO BS</t>
-  </si>
-  <si>
-    <t>TEMPO IBS</t>
-  </si>
-  <si>
-    <t>http://www.ign.com/wikis/call-of-duty-advanced-warfare?objectid=20017429</t>
-  </si>
-  <si>
-    <t>http://www.ibm.com/connect/ibm/us/en/index.html</t>
   </si>
   <si>
     <t>space station The will It This first</t>
@@ -241,18 +210,6 @@
     <t>HITS improved</t>
   </si>
   <si>
-    <t>HITS auth. Score</t>
-  </si>
-  <si>
-    <t>HITS Rank</t>
-  </si>
-  <si>
-    <t>BEST MATCH result</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
     <t>BM</t>
   </si>
   <si>
@@ -265,14 +222,38 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Pagerank</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>http://www.ign.com/wikis/halo-master-chief-collection/Halo_2</t>
+  </si>
+  <si>
+    <t>Pagerank BM</t>
+  </si>
+  <si>
+    <t>HITS BM</t>
+  </si>
+  <si>
+    <t>Pagerank IBM</t>
+  </si>
+  <si>
+    <t>HITS IBM</t>
+  </si>
+  <si>
+    <t>///////////////</t>
+  </si>
+  <si>
+    <t>MATCHING DOCUMENTS</t>
+  </si>
+  <si>
+    <t>SCORE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,16 +299,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -350,12 +364,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -366,11 +393,36 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -435,7 +487,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -565,11 +616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194436104"/>
-        <c:axId val="194438456"/>
+        <c:axId val="167606408"/>
+        <c:axId val="167607192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194436104"/>
+        <c:axId val="167606408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,7 +662,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194438456"/>
+        <c:crossAx val="167607192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -619,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194438456"/>
+        <c:axId val="167607192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +720,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194436104"/>
+        <c:crossAx val="167606408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -775,7 +826,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -962,11 +1012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194437672"/>
-        <c:axId val="194436888"/>
+        <c:axId val="167606800"/>
+        <c:axId val="167607584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194437672"/>
+        <c:axId val="167606800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1058,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194436888"/>
+        <c:crossAx val="167607584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194436888"/>
+        <c:axId val="167607584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1116,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194437672"/>
+        <c:crossAx val="167606800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1080,7 +1130,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1203,7 +1252,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1396,11 +1444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="195330240"/>
-        <c:axId val="195330632"/>
+        <c:axId val="167604448"/>
+        <c:axId val="167604840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195330240"/>
+        <c:axId val="167604448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1484,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1501,7 +1548,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195330632"/>
+        <c:crossAx val="167604840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1509,7 +1556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195330632"/>
+        <c:axId val="167604840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,7 +1606,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195330240"/>
+        <c:crossAx val="167604448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1573,7 +1620,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1696,7 +1742,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1818,11 +1863,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="177624208"/>
-        <c:axId val="177621464"/>
+        <c:axId val="167605624"/>
+        <c:axId val="167802912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177624208"/>
+        <c:axId val="167605624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1903,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1923,7 +1967,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177621464"/>
+        <c:crossAx val="167802912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1931,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177621464"/>
+        <c:axId val="167802912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +2025,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177624208"/>
+        <c:crossAx val="167605624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1995,7 +2039,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2060,6 +2103,1245 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Relative Ranking -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400" baseline="0"/>
+              <a:t> Best Match</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pagerank BM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query  (dettagli)'!$F$7:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HITS BM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query  (dettagli)'!$G$7:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="217568304"/>
+        <c:axId val="217569088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="217568304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217569088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="217569088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217568304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Relative Ranking -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400" baseline="0"/>
+              <a:t> Improved Best Match</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Pagerank IBM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query  (dettagli)'!$H$7:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HITS IBM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Query  (dettagli)'!$I$7:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="l"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="217567128"/>
+        <c:axId val="217569872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="217567128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217569872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="217569872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217567128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
       </a:pPr>
       <a:endParaRPr lang="it-IT"/>
     </a:p>
@@ -2198,6 +3480,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -4177,6 +5539,1082 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4314,6 +6752,73 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
@@ -4752,7 +7257,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>34</v>
@@ -4965,7 +7470,7 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>0.33794879913300002</v>
       </c>
       <c r="D9">
@@ -5182,7 +7687,7 @@
       <c r="B21">
         <v>6</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>2.0617940425899999</v>
       </c>
       <c r="D21">
@@ -5218,7 +7723,7 @@
       <c r="B23">
         <v>6</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>0.169538974762</v>
       </c>
       <c r="D23">
@@ -5308,7 +7813,7 @@
       <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>3.07358598709</v>
       </c>
       <c r="D28">
@@ -5388,1435 +7893,761 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="83.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="33.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C7" s="15">
+        <v>0.16239316239316201</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="16">
+        <v>9</v>
+      </c>
+      <c r="G7" s="16">
+        <v>10</v>
+      </c>
+      <c r="H7" s="16">
+        <v>9</v>
+      </c>
+      <c r="I7" s="16">
+        <v>11</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>46</v>
       </c>
+      <c r="C8" s="15">
+        <v>0.132013201320132</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="16">
+        <v>8</v>
+      </c>
+      <c r="G8" s="16">
+        <v>11</v>
+      </c>
+      <c r="H8" s="16">
+        <v>8</v>
+      </c>
+      <c r="I8" s="16">
+        <v>12</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>3</v>
       </c>
+      <c r="B9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.13157894736842099</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="16">
+        <v>17</v>
+      </c>
+      <c r="G9" s="16">
+        <v>18</v>
+      </c>
+      <c r="H9" s="16">
+        <v>17</v>
+      </c>
+      <c r="I9" s="16">
+        <v>19</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>41</v>
-      </c>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="16">
+        <v>13</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6</v>
+      </c>
+      <c r="H10" s="16">
+        <v>13</v>
+      </c>
+      <c r="I10" s="16">
+        <v>7</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.125</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="16">
+        <v>10</v>
+      </c>
+      <c r="G11" s="16">
+        <v>15</v>
+      </c>
+      <c r="H11" s="16">
+        <v>10</v>
+      </c>
+      <c r="I11" s="16">
+        <v>16</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>6</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.124645892351274</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="22">
+        <v>19</v>
+      </c>
+      <c r="G12" s="22">
+        <v>20</v>
+      </c>
+      <c r="H12" s="22">
+        <v>19</v>
+      </c>
+      <c r="I12" s="22">
+        <v>20</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0.122448979591836</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="16">
+        <v>14</v>
+      </c>
+      <c r="G13" s="16">
+        <v>7</v>
+      </c>
+      <c r="H13" s="16">
+        <v>14</v>
+      </c>
+      <c r="I13" s="16">
+        <v>8</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0.122448979591836</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="16">
+        <v>6</v>
+      </c>
+      <c r="G14" s="16">
+        <v>9</v>
+      </c>
+      <c r="H14" s="16">
+        <v>6</v>
+      </c>
+      <c r="I14" s="16">
+        <v>10</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.10919540229885</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="16">
+        <v>7</v>
+      </c>
+      <c r="G15" s="16">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16">
+        <v>7</v>
+      </c>
+      <c r="I15" s="16">
+        <v>13</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="16">
+        <v>5</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.101694915254237</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="16">
+        <v>16</v>
+      </c>
+      <c r="G17" s="16">
+        <v>17</v>
+      </c>
+      <c r="H17" s="16">
+        <v>16</v>
+      </c>
+      <c r="I17" s="16">
+        <v>18</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="16">
+        <v>5</v>
+      </c>
+      <c r="G18" s="16">
+        <v>8</v>
+      </c>
+      <c r="H18" s="16">
+        <v>5</v>
+      </c>
+      <c r="I18" s="16">
+        <v>9</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="16">
+        <v>12</v>
+      </c>
+      <c r="G19" s="16">
+        <v>5</v>
+      </c>
+      <c r="H19" s="16">
+        <v>12</v>
+      </c>
+      <c r="I19" s="16">
+        <v>6</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="16">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <v>2</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="15">
+        <v>9.8765432098765399E-2</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="16">
+        <v>4</v>
+      </c>
+      <c r="G21" s="16">
+        <v>13</v>
+      </c>
+      <c r="H21" s="16">
+        <v>4</v>
+      </c>
+      <c r="I21" s="16">
+        <v>14</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="15">
+        <v>9.7560975609756101E-2</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="16">
+        <v>18</v>
+      </c>
+      <c r="G22" s="16">
+        <v>16</v>
+      </c>
+      <c r="H22" s="16">
+        <v>18</v>
+      </c>
+      <c r="I22" s="16">
+        <v>17</v>
+      </c>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="15">
+        <v>9.5238095238095205E-2</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="16">
+        <v>20</v>
+      </c>
+      <c r="G23" s="16">
+        <v>14</v>
+      </c>
+      <c r="H23" s="16">
+        <v>20</v>
+      </c>
+      <c r="I23" s="16">
+        <v>15</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="15">
+        <v>9.1922005571030599E-2</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="16">
+        <v>2</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="16">
+        <v>2</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="17">
+        <v>9.1922005571030599E-2</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="16">
+        <v>11</v>
+      </c>
+      <c r="G25" s="16">
+        <v>3</v>
+      </c>
+      <c r="H25" s="16">
+        <v>11</v>
+      </c>
+      <c r="I25" s="16">
+        <v>4</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="15">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="16">
+        <v>15</v>
+      </c>
+      <c r="G26" s="16">
+        <v>19</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="48.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="69.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2">
-        <v>0.22014403343200001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="79.140625" customWidth="1"/>
-    <col min="2" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="8" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="11" t="s">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="15">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.16239316239316201</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="12">
-        <v>9</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.132013201320132</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12">
-        <v>8</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="7">
-        <v>0.13157894736842099</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="12">
-        <v>17</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="12">
-        <v>13</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="12">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.124645892351274</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="12">
-        <v>19</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="7">
-        <v>0.122448979591836</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="12">
-        <v>14</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.122448979591836</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="12">
-        <v>6</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="7">
-        <v>0.10919540229885</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="12">
-        <v>7</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0.101694915254237</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="12">
+      <c r="G27" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="18">
+        <v>15</v>
+      </c>
+      <c r="I27" s="18">
         <v>3</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="7">
-        <v>0.101694915254237</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="12">
-        <v>16</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="12">
-        <v>5</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="12">
-        <v>12</v>
-      </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="7">
-        <v>9.8765432098765399E-2</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="12">
-        <v>4</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="7">
-        <v>9.7560975609756101E-2</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="12">
-        <v>18</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="7">
-        <v>9.5238095238095205E-2</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="12">
-        <v>20</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="7">
-        <v>9.1922005571030599E-2</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="12">
-        <v>2</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="8">
-        <v>9.1922005571030599E-2</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="12">
-        <v>11</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="7">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12">
-        <v>15</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
+    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B27" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Risultati/Risultati Search Engine.xlsx
+++ b/Risultati/Risultati Search Engine.xlsx
@@ -616,11 +616,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167606408"/>
-        <c:axId val="167607192"/>
+        <c:axId val="165796312"/>
+        <c:axId val="165116528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167606408"/>
+        <c:axId val="165796312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +662,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167607192"/>
+        <c:crossAx val="165116528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +670,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167607192"/>
+        <c:axId val="165116528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,7 +720,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167606408"/>
+        <c:crossAx val="165796312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1012,11 +1012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167606800"/>
-        <c:axId val="167607584"/>
+        <c:axId val="166201728"/>
+        <c:axId val="166199768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167606800"/>
+        <c:axId val="166201728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1058,7 +1058,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167607584"/>
+        <c:crossAx val="166199768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1066,7 +1066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167607584"/>
+        <c:axId val="166199768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1116,7 +1116,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167606800"/>
+        <c:crossAx val="166201728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1444,11 +1444,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167604448"/>
-        <c:axId val="167604840"/>
+        <c:axId val="166205256"/>
+        <c:axId val="166202512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167604448"/>
+        <c:axId val="166205256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,7 +1548,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167604840"/>
+        <c:crossAx val="166202512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1556,7 +1556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167604840"/>
+        <c:axId val="166202512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,7 +1606,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167604448"/>
+        <c:crossAx val="166205256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1863,11 +1863,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="167605624"/>
-        <c:axId val="167802912"/>
+        <c:axId val="166203296"/>
+        <c:axId val="166203688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167605624"/>
+        <c:axId val="166203296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167802912"/>
+        <c:crossAx val="166203688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1975,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167802912"/>
+        <c:axId val="166203688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2025,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="167605624"/>
+        <c:crossAx val="166203296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2539,11 +2539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217568304"/>
-        <c:axId val="217569088"/>
+        <c:axId val="166200160"/>
+        <c:axId val="166200552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217568304"/>
+        <c:axId val="166200160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,8 +2569,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2593,12 +2594,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217569088"/>
+        <c:crossAx val="166200552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217569088"/>
+        <c:axId val="166200552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2654,7 +2655,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217568304"/>
+        <c:crossAx val="166200160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2781,7 +2782,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2895,7 +2895,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3060,7 +3059,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3155,11 +3153,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217567128"/>
-        <c:axId val="217569872"/>
+        <c:axId val="166201336"/>
+        <c:axId val="166202120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217567128"/>
+        <c:axId val="166201336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,12 +3208,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217569872"/>
+        <c:crossAx val="166202120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217569872"/>
+        <c:axId val="166202120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,7 +3269,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217567128"/>
+        <c:crossAx val="166201336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3285,7 +3283,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7895,8 +7892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
